--- a/biology/Médecine/Fosse_de_l'acétabulum/Fosse_de_l'acétabulum.xlsx
+++ b/biology/Médecine/Fosse_de_l'acétabulum/Fosse_de_l'acétabulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fosse_de_l%27ac%C3%A9tabulum</t>
+          <t>Fosse_de_l'acétabulum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 La fosse de l'acétabulum (ou arrière-fond de la cavité cotyloïde) est la partie centrale de l'acétabulum.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fosse_de_l%27ac%C3%A9tabulum</t>
+          <t>Fosse_de_l'acétabulum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fosse de l'acétabulum est une surface quadrilatère rugueuse et non articulaire.
 Elle est entourée en partie par la surface lunaire de l'acétabulum et se poursuit en bas par l'incisure de l'acétabulum.
